--- a/Costo/Curva S.xlsx
+++ b/Costo/Curva S.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -30,9 +35,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Presupuesto Ejecutado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Semana </t>
   </si>
   <si>
@@ -175,6 +177,9 @@
   </si>
   <si>
     <t>Cierre</t>
+  </si>
+  <si>
+    <t>Presupuesto Ejecutado (Valor ganado)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -373,9 +384,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -413,18 +421,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -440,22 +451,34 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,6 +491,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -475,7 +501,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -573,7 +599,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Presupuesto Ejecutado</c:v>
+            <c:v>Presupuesto Ejecutado (Valor Ganado)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
@@ -585,10 +611,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$3:$C$6</c:f>
+              <c:f>Hoja2!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>600000</c:v>
                 </c:pt>
@@ -600,6 +626,45 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2450000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4600000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11150000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12600000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13650000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14900000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15800000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16250000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16550000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17450000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,13 +679,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105593472"/>
-        <c:axId val="105640320"/>
+        <c:axId val="266545624"/>
+        <c:axId val="266549544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105593472"/>
+        <c:axId val="266545624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105640320"/>
+        <c:crossAx val="266549544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105640320"/>
+        <c:axId val="266549544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000000"/>
@@ -650,7 +714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105593472"/>
+        <c:crossAx val="266545624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500000"/>
@@ -683,10 +747,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2552700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -709,7 +773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -751,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,7 +850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,7 +1065,7 @@
       <selection activeCell="O2" sqref="O2:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="15" width="12.140625" style="2" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
@@ -1882,13 +1946,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
@@ -1906,10 +1970,10 @@
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="19" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="20"/>
+    <col min="21" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1917,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1931,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1942,7 +2006,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1953,7 +2017,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1964,7 +2028,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1974,85 +2038,158 @@
       <c r="C6" s="2">
         <v>2450000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5850000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+D6</f>
+        <v>4600000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>7850000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f>C7+D7</f>
+        <v>7150000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f>C8+D8</f>
+        <v>8350000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>10350000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f>C9+D9</f>
+        <v>9700000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>11550000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f>C10+D10</f>
+        <v>11150000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>13100000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f>C11+D11</f>
+        <v>12600000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>14200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f>C12+D12</f>
+        <v>13650000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>15250000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f>C13+D13</f>
+        <v>14900000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>16200000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f>C14+D14</f>
+        <v>15800000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>16650000</v>
+      </c>
+      <c r="C16" s="2">
+        <f>C15+D15</f>
+        <v>16250000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>300000</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2062,6 +2199,13 @@
       <c r="B17">
         <v>17150000</v>
       </c>
+      <c r="C17" s="2">
+        <f>C16+D16</f>
+        <v>16550000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>600000</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2070,6 +2214,13 @@
       <c r="B18">
         <v>17650000</v>
       </c>
+      <c r="C18" s="2">
+        <f>C17+D17</f>
+        <v>17150000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>300000</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2078,6 +2229,11 @@
       <c r="B19">
         <v>18150000</v>
       </c>
+      <c r="C19" s="2">
+        <f>C18+D18</f>
+        <v>17450000</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2086,6 +2242,7 @@
       <c r="B20">
         <v>18700000</v>
       </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2094,11 +2251,26 @@
       <c r="B21">
         <v>19100000</v>
       </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>B21-750000</f>
+        <v>18350000</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B21-B19</f>
+        <v>950000</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="25" spans="1:20" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" s="24" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -2154,115 +2326,115 @@
       <c r="S26" s="5">
         <v>18</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="20">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="25" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="24" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="R27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="S27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="25" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="24" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>17</v>
+      <c r="I28" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="27"/>
+      <c r="M28" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="39"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T28" s="15"/>
-    </row>
-    <row r="29" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11">
         <v>250000</v>
@@ -2271,11 +2443,11 @@
       <c r="D29" s="11">
         <v>400000</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="26">
         <v>1100000</v>
       </c>
       <c r="F29" s="31"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11">
         <v>300000</v>
@@ -2293,58 +2465,58 @@
       <c r="N29" s="11">
         <v>350000</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="26">
         <v>1200000</v>
       </c>
       <c r="P29" s="31"/>
-      <c r="Q29" s="29"/>
+      <c r="Q29" s="27"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11">
         <v>150000</v>
       </c>
-      <c r="T29" s="13"/>
-    </row>
-    <row r="30" spans="1:20" s="25" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" s="24" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="27"/>
+      <c r="I30" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="39"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="26" t="s">
-        <v>48</v>
+      <c r="Q30" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="R30" s="30"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="15"/>
-    </row>
-    <row r="31" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="29"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11">
         <v>149999.99</v>
@@ -2363,80 +2535,82 @@
         <v>350000</v>
       </c>
       <c r="H31" s="11"/>
-      <c r="I31" s="28">
+      <c r="I31" s="26">
         <v>500000</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="28">
+      <c r="J31" s="27"/>
+      <c r="K31" s="26">
+        <v>600000</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="26">
         <v>200000</v>
       </c>
-      <c r="N31" s="29"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="28">
+      <c r="Q31" s="26">
         <v>800000</v>
       </c>
       <c r="R31" s="31"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="1:20" s="25" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="27"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" s="24" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>36</v>
+      <c r="B32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N32" s="27"/>
+      <c r="M32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="39"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="T32" s="27"/>
-    </row>
-    <row r="33" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" s="29"/>
+    </row>
+    <row r="33" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="28">
+      <c r="B33" s="26">
         <v>600000</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28">
+      <c r="C33" s="27"/>
+      <c r="D33" s="26">
         <v>200000</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="11">
         <v>100000</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="26">
         <v>600000</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="11">
         <v>350000</v>
       </c>
@@ -2445,56 +2619,56 @@
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="28">
+      <c r="M33" s="26">
         <v>500000</v>
       </c>
-      <c r="N33" s="29"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="28">
+      <c r="S33" s="26">
         <v>400000</v>
       </c>
-      <c r="T33" s="29"/>
-    </row>
-    <row r="34" spans="1:20" s="25" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="27"/>
+    </row>
+    <row r="34" spans="1:20" s="24" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="27"/>
+      <c r="J34" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="39"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T34" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11">
@@ -2503,107 +2677,107 @@
       <c r="D35" s="11">
         <v>50000</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="26">
         <v>500000</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="11">
         <v>300000</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="28">
+      <c r="J35" s="26">
         <v>1800000</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="28">
+      <c r="M35" s="27"/>
+      <c r="N35" s="26">
         <v>350000</v>
       </c>
-      <c r="O35" s="29"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
-      <c r="T35" s="13">
+      <c r="T35" s="12">
         <v>200000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="24" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="40"/>
+      <c r="C36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="F36" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="39"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="27"/>
+      <c r="J36" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="15"/>
-    </row>
-    <row r="37" spans="1:20" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="28">
+      <c r="C37" s="26">
         <v>600000</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="28">
+      <c r="F37" s="26">
         <v>350000</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="28">
+      <c r="J37" s="26">
         <v>1500000</v>
       </c>
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
-      <c r="M37" s="29"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="1:20" s="25" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T37" s="12"/>
+    </row>
+    <row r="38" spans="1:20" s="24" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="35" t="s">
+      <c r="F38" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="G38" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="43"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="36"/>
+      <c r="J38" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="43"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -2612,48 +2786,48 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="15"/>
-    </row>
-    <row r="39" spans="1:20" s="25" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="T38" s="14"/>
+    </row>
+    <row r="39" spans="1:20" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="11">
         <v>250000</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="26">
         <v>250000</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="37">
+      <c r="H39" s="27"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="35">
         <v>500000</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20" s="25" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="36"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="12"/>
+    </row>
+    <row r="40" spans="1:20" s="24" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="36"/>
+      <c r="E40" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2664,13 +2838,13 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="15"/>
-    </row>
-    <row r="41" spans="1:20" s="25" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" s="24" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="32">
         <v>1800000</v>
       </c>
@@ -2678,48 +2852,343 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="23"/>
-    </row>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="22"/>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>350000</v>
+      </c>
+      <c r="G43" s="2">
+        <v>350000</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <v>300000</v>
+      </c>
+      <c r="J43" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>300000</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>150000</v>
+      </c>
+      <c r="N43" s="2">
+        <v>350000</v>
+      </c>
+      <c r="O43" s="2">
+        <v>300000</v>
+      </c>
+      <c r="P43" s="2">
+        <v>300000</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2">
+        <v>150000</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G44" s="2">
+        <v>350000</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2">
+        <v>250000</v>
+      </c>
+      <c r="J44" s="2">
+        <v>250000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>300000</v>
+      </c>
+      <c r="L44" s="2">
+        <v>300000</v>
+      </c>
+      <c r="M44" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N44" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2">
+        <v>300000</v>
+      </c>
+      <c r="R44" s="2">
+        <v>300000</v>
+      </c>
+      <c r="S44" s="2">
+        <v>200000</v>
+      </c>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <f>450000</f>
+        <v>450000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>350000</v>
+      </c>
+      <c r="J45" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <v>250000</v>
+      </c>
+      <c r="N45" s="2">
+        <v>250000</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2">
+        <v>200000</v>
+      </c>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>250000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>450000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>450000</v>
+      </c>
+      <c r="L46" s="2">
+        <v>450000</v>
+      </c>
+      <c r="M46" s="2">
+        <v>450000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>200000</v>
+      </c>
+      <c r="O46" s="2">
+        <v>150000</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>400000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>400000</v>
+      </c>
+      <c r="L47" s="2">
+        <v>300000</v>
+      </c>
+      <c r="M47" s="2">
+        <v>300000</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>350000</v>
+      </c>
+      <c r="F48" s="2">
+        <v>250000</v>
+      </c>
+      <c r="G48" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>250000</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="5:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>450000</v>
+      </c>
+      <c r="G49" s="2">
+        <v>450000</v>
+      </c>
+      <c r="H49" s="2">
+        <v>450000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>450000</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="5:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G50" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>450000</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="5:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <f>SUM(F43:F50)</f>
+        <v>2150000</v>
+      </c>
+      <c r="G51" s="2">
+        <f>SUM(G43:G50)</f>
+        <v>2550000</v>
+      </c>
+      <c r="H51" s="2">
+        <f>SUM(H43:H50)</f>
+        <v>1200000</v>
+      </c>
+      <c r="I51" s="2">
+        <f>SUM(I43:I50)</f>
+        <v>1350000</v>
+      </c>
+      <c r="J51" s="2">
+        <f>SUM(J43:J50)</f>
+        <v>1450000</v>
+      </c>
+      <c r="K51" s="2">
+        <f>SUM(K43:K50)</f>
+        <v>1450000</v>
+      </c>
+      <c r="L51" s="2">
+        <f>SUM(L43:L50)</f>
+        <v>1050000</v>
+      </c>
+      <c r="M51" s="2">
+        <f>SUM(M43:M50)</f>
+        <v>1250000</v>
+      </c>
+      <c r="N51" s="2">
+        <f>SUM(N43:N50)</f>
+        <v>900000</v>
+      </c>
+      <c r="O51" s="2">
+        <f>SUM(O43:O50)</f>
+        <v>450000</v>
+      </c>
+      <c r="P51" s="2">
+        <f>SUM(P43:P50)</f>
+        <v>300000</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>SUM(Q43:Q50)</f>
+        <v>600000</v>
+      </c>
+      <c r="R51" s="2">
+        <f>SUM(R43:R50)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="5:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="5:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="5:20" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="O28:Q28"/>
@@ -2732,6 +3201,34 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M33:N33"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2744,7 +3241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
